--- a/experiments/00_general/results/statistics/stats_imu_features_condition.xlsx
+++ b/experiments/00_general/results/statistics/stats_imu_features_condition.xlsx
@@ -584,10 +584,10 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.9691</v>
+        <v>0.9746</v>
       </c>
       <c r="D4">
-        <v>0.4021</v>
+        <v>0.5979</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8753</v>
+        <v>0.8815</v>
       </c>
       <c r="D7">
-        <v>0.0008</v>
+        <v>0.0015</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.8692</v>
+        <v>0.8744</v>
       </c>
       <c r="D10">
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.9077</v>
+        <v>0.9143</v>
       </c>
       <c r="D13">
-        <v>0.0056</v>
+        <v>0.0112</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.9267</v>
+        <v>0.9061</v>
       </c>
       <c r="D16">
-        <v>0.0199</v>
+        <v>0.0067</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>3.3086</v>
+        <v>3.3268</v>
       </c>
       <c r="D3">
-        <v>0.0404</v>
+        <v>0.0398</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.5387999999999999</v>
+        <v>0.4477</v>
       </c>
       <c r="D4">
-        <v>0.585</v>
+        <v>0.6403</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -878,10 +878,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>1.3096</v>
+        <v>1.2232</v>
       </c>
       <c r="D5">
-        <v>0.2743</v>
+        <v>0.2985</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.2068</v>
+        <v>0.2681</v>
       </c>
       <c r="D6">
-        <v>0.8135</v>
+        <v>0.7654</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -912,10 +912,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>2.8689</v>
+        <v>2.9704</v>
       </c>
       <c r="D7">
-        <v>0.0612</v>
+        <v>0.0557</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>63.4742</v>
+        <v>62.2065</v>
       </c>
       <c r="F3">
-        <v>5.7241</v>
+        <v>5.6844</v>
       </c>
       <c r="G3">
-        <v>0.0052</v>
+        <v>0.0054</v>
       </c>
       <c r="H3">
-        <v>0.0682</v>
+        <v>0.0708</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1003,16 +1003,16 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>54.1889</v>
+        <v>53.177</v>
       </c>
       <c r="F4">
-        <v>0.441</v>
+        <v>0.4525</v>
       </c>
       <c r="G4">
-        <v>0.6457000000000001</v>
+        <v>0.6385</v>
       </c>
       <c r="H4">
-        <v>0.008399999999999999</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1029,16 +1029,16 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>62.9577</v>
+        <v>61.4906</v>
       </c>
       <c r="F5">
-        <v>5.5782</v>
+        <v>5.0987</v>
       </c>
       <c r="G5">
-        <v>0.0059</v>
+        <v>0.0089</v>
       </c>
       <c r="H5">
-        <v>0.0679</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1055,16 +1055,16 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>54.123</v>
+        <v>53.5269</v>
       </c>
       <c r="F6">
-        <v>3.4356</v>
+        <v>2.89</v>
       </c>
       <c r="G6">
-        <v>0.0394</v>
+        <v>0.0643</v>
       </c>
       <c r="H6">
-        <v>0.0608</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1081,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>66.7754</v>
+        <v>65.328</v>
       </c>
       <c r="F7">
-        <v>5.78</v>
+        <v>5.7742</v>
       </c>
       <c r="G7">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="H7">
-        <v>0.0737</v>
+        <v>0.0762</v>
       </c>
     </row>
   </sheetData>
@@ -1161,28 +1161,28 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>830.7373</v>
+        <v>828.1365</v>
       </c>
       <c r="F3">
         <v>884.9348</v>
       </c>
       <c r="G3">
-        <v>-54.1975</v>
+        <v>-56.7983</v>
       </c>
       <c r="H3">
-        <v>61.7263</v>
+        <v>61.4999</v>
       </c>
       <c r="I3">
-        <v>-0.878</v>
+        <v>-0.9236</v>
       </c>
       <c r="J3">
-        <v>80.26090000000001</v>
+        <v>77.575</v>
       </c>
       <c r="K3">
-        <v>0.6556999999999999</v>
+        <v>0.6271</v>
       </c>
       <c r="L3">
-        <v>-0.1902</v>
+        <v>-0.2034</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1197,28 +1197,28 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>830.7373</v>
+        <v>828.1365</v>
       </c>
       <c r="F4">
         <v>692.9084</v>
       </c>
       <c r="G4">
-        <v>137.8289</v>
+        <v>135.2281</v>
       </c>
       <c r="H4">
-        <v>60.0005</v>
+        <v>59.7676</v>
       </c>
       <c r="I4">
-        <v>2.2971</v>
+        <v>2.2626</v>
       </c>
       <c r="J4">
-        <v>54.8079</v>
+        <v>53.1676</v>
       </c>
       <c r="K4">
-        <v>0.0646</v>
+        <v>0.0701</v>
       </c>
       <c r="L4">
-        <v>0.6133</v>
+        <v>0.6104000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1271,28 +1271,28 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>0.2573</v>
+        <v>0.2588</v>
       </c>
       <c r="F6">
         <v>0.2145</v>
       </c>
       <c r="G6">
-        <v>0.0428</v>
+        <v>0.0442</v>
       </c>
       <c r="H6">
-        <v>0.0492</v>
+        <v>0.0501</v>
       </c>
       <c r="I6">
-        <v>0.87</v>
+        <v>0.8833</v>
       </c>
       <c r="J6">
-        <v>71.03959999999999</v>
+        <v>66.36490000000001</v>
       </c>
       <c r="K6">
-        <v>0.6609</v>
+        <v>0.6526999999999999</v>
       </c>
       <c r="L6">
-        <v>0.1885</v>
+        <v>0.1945</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1307,28 +1307,28 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>0.2573</v>
+        <v>0.2588</v>
       </c>
       <c r="F7">
         <v>0.2497</v>
       </c>
       <c r="G7">
-        <v>0.0076</v>
+        <v>0.0091</v>
       </c>
       <c r="H7">
-        <v>0.0606</v>
+        <v>0.0613</v>
       </c>
       <c r="I7">
-        <v>0.126</v>
+        <v>0.1481</v>
       </c>
       <c r="J7">
-        <v>47.0549</v>
+        <v>47.3108</v>
       </c>
       <c r="K7">
-        <v>0.9913</v>
+        <v>0.988</v>
       </c>
       <c r="L7">
-        <v>0.0336</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1381,28 +1381,28 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>534.0992</v>
+        <v>526.6651000000001</v>
       </c>
       <c r="F9">
         <v>478.0263</v>
       </c>
       <c r="G9">
-        <v>56.0729</v>
+        <v>48.6388</v>
       </c>
       <c r="H9">
-        <v>46.8017</v>
+        <v>47.2102</v>
       </c>
       <c r="I9">
-        <v>1.1981</v>
+        <v>1.0303</v>
       </c>
       <c r="J9">
-        <v>73.5082</v>
+        <v>69.5658</v>
       </c>
       <c r="K9">
-        <v>0.4581</v>
+        <v>0.5604</v>
       </c>
       <c r="L9">
-        <v>0.2595</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1417,28 +1417,28 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>534.0992</v>
+        <v>526.6651000000001</v>
       </c>
       <c r="F10">
         <v>384.8431</v>
       </c>
       <c r="G10">
-        <v>149.2561</v>
+        <v>141.822</v>
       </c>
       <c r="H10">
-        <v>46.3775</v>
+        <v>46.7897</v>
       </c>
       <c r="I10">
-        <v>3.2183</v>
+        <v>3.0311</v>
       </c>
       <c r="J10">
-        <v>55.9711</v>
+        <v>53.9788</v>
       </c>
       <c r="K10">
-        <v>0.006</v>
+        <v>0.0103</v>
       </c>
       <c r="L10">
-        <v>0.8592</v>
+        <v>0.8178</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1491,28 +1491,28 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>3.7222</v>
+        <v>3.7941</v>
       </c>
       <c r="F12">
         <v>4.18</v>
       </c>
       <c r="G12">
-        <v>-0.4578</v>
+        <v>-0.3859</v>
       </c>
       <c r="H12">
-        <v>0.3258</v>
+        <v>0.3308</v>
       </c>
       <c r="I12">
-        <v>-1.405</v>
+        <v>-1.1664</v>
       </c>
       <c r="J12">
-        <v>81.5256</v>
+        <v>77.71850000000001</v>
       </c>
       <c r="K12">
-        <v>0.3431</v>
+        <v>0.4767</v>
       </c>
       <c r="L12">
-        <v>-0.3044</v>
+        <v>-0.2569</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1527,28 +1527,28 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>3.7222</v>
+        <v>3.7941</v>
       </c>
       <c r="F13">
         <v>4.8182</v>
       </c>
       <c r="G13">
-        <v>-1.096</v>
+        <v>-1.0241</v>
       </c>
       <c r="H13">
-        <v>0.4211</v>
+        <v>0.425</v>
       </c>
       <c r="I13">
-        <v>-2.6027</v>
+        <v>-2.4096</v>
       </c>
       <c r="J13">
-        <v>38.6677</v>
+        <v>39.3487</v>
       </c>
       <c r="K13">
-        <v>0.0341</v>
+        <v>0.053</v>
       </c>
       <c r="L13">
-        <v>-0.6948</v>
+        <v>-0.6501</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1601,28 +1601,28 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>280.1073</v>
+        <v>279.5242</v>
       </c>
       <c r="F15">
         <v>349.9914</v>
       </c>
       <c r="G15">
-        <v>-69.8841</v>
+        <v>-70.46729999999999</v>
       </c>
       <c r="H15">
-        <v>40.2443</v>
+        <v>40.1617</v>
       </c>
       <c r="I15">
-        <v>-1.7365</v>
+        <v>-1.7546</v>
       </c>
       <c r="J15">
-        <v>82.78619999999999</v>
+        <v>80.2805</v>
       </c>
       <c r="K15">
-        <v>0.1978</v>
+        <v>0.1916</v>
       </c>
       <c r="L15">
-        <v>-0.3762</v>
+        <v>-0.3864</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1637,28 +1637,28 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>280.1073</v>
+        <v>279.5242</v>
       </c>
       <c r="F16">
         <v>225.6323</v>
       </c>
       <c r="G16">
-        <v>54.475</v>
+        <v>53.8918</v>
       </c>
       <c r="H16">
-        <v>35.4541</v>
+        <v>35.3603</v>
       </c>
       <c r="I16">
-        <v>1.5365</v>
+        <v>1.5241</v>
       </c>
       <c r="J16">
-        <v>55.97</v>
+        <v>53.9999</v>
       </c>
       <c r="K16">
-        <v>0.2819</v>
+        <v>0.2878</v>
       </c>
       <c r="L16">
-        <v>0.4102</v>
+        <v>0.4112</v>
       </c>
     </row>
     <row r="17" spans="1:12">
